--- a/ccbhc_measurements/dashboard/excel files/DEP_REM_sub_1_stratification.xlsx
+++ b/ccbhc_measurements/dashboard/excel files/DEP_REM_sub_1_stratification.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C585"/>
+  <dimension ref="A1:C584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1541,7 +1541,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20897</t>
+          <t>21268</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1551,14 +1551,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>21268</t>
+          <t>21874</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1575,24 +1575,24 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>21874</t>
+          <t>21966</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>21966</t>
+          <t>22029</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1602,19 +1602,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>22029</t>
+          <t>22085</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1626,24 +1626,24 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>22085</t>
+          <t>22095</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>22095</t>
+          <t>22150</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1653,14 +1653,14 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>22150</t>
+          <t>22381</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1670,19 +1670,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>22381</t>
+          <t>22536</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1694,7 +1694,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>22536</t>
+          <t>22642</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1704,31 +1704,31 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>22642</t>
+          <t>22718</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>22718</t>
+          <t>22832</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1745,58 +1745,58 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>22832</t>
+          <t>22888</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>22888</t>
+          <t>22911</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>22911</t>
+          <t>23032</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>23032</t>
+          <t>23216</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1813,63 +1813,63 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>23216</t>
+          <t>23729</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>23729</t>
+          <t>23879</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>23879</t>
+          <t>24214</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>24214</t>
+          <t>24281</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1881,7 +1881,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>24281</t>
+          <t>24295</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1891,53 +1891,53 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>24295</t>
+          <t>24552</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>24552</t>
+          <t>24633</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>24633</t>
+          <t>24898</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1949,41 +1949,41 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>24898</t>
+          <t>25531</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>25531</t>
+          <t>25557</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>25557</t>
+          <t>25628</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1993,14 +1993,14 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>25628</t>
+          <t>25647</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2010,53 +2010,53 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>25647</t>
+          <t>25693</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>25693</t>
+          <t>25702</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>25702</t>
+          <t>25747</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2068,24 +2068,24 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>25747</t>
+          <t>25762</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>25762</t>
+          <t>25868</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2095,70 +2095,70 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>25868</t>
+          <t>25925</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>25925</t>
+          <t>25946</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>25946</t>
+          <t>25994</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>25994</t>
+          <t>26031</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2170,7 +2170,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>26031</t>
+          <t>26114</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2180,14 +2180,14 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>26114</t>
+          <t>26294</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2197,14 +2197,14 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>26294</t>
+          <t>26332</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2214,14 +2214,14 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>26332</t>
+          <t>26404</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2231,14 +2231,14 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>26404</t>
+          <t>26431</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2248,82 +2248,82 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>26431</t>
+          <t>26444</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>26444</t>
+          <t>26830</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>26830</t>
+          <t>26865</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>26865</t>
+          <t>26907</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>26907</t>
+          <t>27230</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2340,12 +2340,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>27230</t>
+          <t>27301</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2357,41 +2357,41 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>27301</t>
+          <t>27303</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>27303</t>
+          <t>27472</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>27472</t>
+          <t>27698</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2408,12 +2408,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>27698</t>
+          <t>27834</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2425,7 +2425,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>27834</t>
+          <t>27870</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2435,19 +2435,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>27870</t>
+          <t>28764</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2459,24 +2459,24 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>28764</t>
+          <t>28839</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>28839</t>
+          <t>28868</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2486,36 +2486,36 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>28868</t>
+          <t>28911</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>28911</t>
+          <t>28932</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2527,29 +2527,29 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>28932</t>
+          <t>29231</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>29231</t>
+          <t>29306</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2561,58 +2561,58 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>29306</t>
+          <t>29417</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>29417</t>
+          <t>29466</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>29466</t>
+          <t>29616</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>29616</t>
+          <t>29647</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2622,14 +2622,14 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>29647</t>
+          <t>29653</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2639,19 +2639,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>29653</t>
+          <t>29679</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2663,58 +2663,58 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>29679</t>
+          <t>29870</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>29870</t>
+          <t>30238</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>30238</t>
+          <t>30249</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>30249</t>
+          <t>30272</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2731,24 +2731,24 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>30272</t>
+          <t>30384</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>30384</t>
+          <t>30441</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2758,36 +2758,36 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>30441</t>
+          <t>30469</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>30469</t>
+          <t>30782</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2799,92 +2799,92 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>30782</t>
+          <t>30796</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>30796</t>
+          <t>30891</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>30891</t>
+          <t>30925</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>30925</t>
+          <t>31250</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>31250</t>
+          <t>31299</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>31299</t>
+          <t>31332</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2894,19 +2894,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>31332</t>
+          <t>31470</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2918,7 +2918,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>31470</t>
+          <t>31513</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2928,14 +2928,14 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>31513</t>
+          <t>31620</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2952,7 +2952,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>31620</t>
+          <t>31833</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2962,48 +2962,48 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>31833</t>
+          <t>32227</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>32227</t>
+          <t>32262</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>32262</t>
+          <t>32391</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3020,29 +3020,29 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>32391</t>
+          <t>32440</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>32440</t>
+          <t>32560</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3054,12 +3054,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>32560</t>
+          <t>32821</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3071,24 +3071,24 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>32821</t>
+          <t>32890</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>32890</t>
+          <t>33062</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3098,48 +3098,48 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>33062</t>
+          <t>33069</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>33069</t>
+          <t>33110</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>33110</t>
+          <t>33137</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3149,14 +3149,14 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>33137</t>
+          <t>33311</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3166,48 +3166,48 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>33311</t>
+          <t>33328</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>33328</t>
+          <t>33524</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>33524</t>
+          <t>33809</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3224,29 +3224,29 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>33809</t>
+          <t>33833</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>33833</t>
+          <t>33846</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3258,58 +3258,58 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>33846</t>
+          <t>33855</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>33855</t>
+          <t>34159</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>34159</t>
+          <t>34218</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>34218</t>
+          <t>34229</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3319,19 +3319,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>34229</t>
+          <t>34356</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3343,7 +3343,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>34356</t>
+          <t>34485</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3360,63 +3360,63 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>34485</t>
+          <t>34630</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>34630</t>
+          <t>34635</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>34635</t>
+          <t>34867</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>34867</t>
+          <t>34899</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3428,41 +3428,41 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>34899</t>
+          <t>35548</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>35548</t>
+          <t>35567</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>35567</t>
+          <t>35666</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3472,14 +3472,14 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>35666</t>
+          <t>35809</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3496,41 +3496,41 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>35809</t>
+          <t>36316</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>36316</t>
+          <t>36423</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>36423</t>
+          <t>36462</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3540,104 +3540,104 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>36462</t>
+          <t>36640</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>36640</t>
+          <t>36740</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>36740</t>
+          <t>36742</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>36742</t>
+          <t>36963</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>36963</t>
+          <t>37034</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>37034</t>
+          <t>37174</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3649,12 +3649,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>37174</t>
+          <t>37324</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3666,58 +3666,58 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>37324</t>
+          <t>37348</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>37348</t>
+          <t>37540</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>37540</t>
+          <t>37630</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>37630</t>
+          <t>37943</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3727,14 +3727,14 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>37943</t>
+          <t>37983</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3744,31 +3744,31 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>37983</t>
+          <t>38033</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>38033</t>
+          <t>38189</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3785,12 +3785,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>38189</t>
+          <t>38375</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -3802,24 +3802,24 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>38375</t>
+          <t>38678</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>38678</t>
+          <t>38788</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -3829,48 +3829,48 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>38788</t>
+          <t>38852</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>38852</t>
+          <t>39150</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>39150</t>
+          <t>39261</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -3880,14 +3880,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>39261</t>
+          <t>39459</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3897,14 +3897,14 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>39459</t>
+          <t>39512</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -3921,12 +3921,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>39512</t>
+          <t>39522</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3938,29 +3938,29 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>39522</t>
+          <t>39547</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>39547</t>
+          <t>39962</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3972,12 +3972,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>39962</t>
+          <t>40030</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -3989,7 +3989,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>40030</t>
+          <t>40205</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -4006,7 +4006,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>40205</t>
+          <t>40230</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -4016,14 +4016,14 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>40230</t>
+          <t>40379</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -4033,31 +4033,31 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>40379</t>
+          <t>40490</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>40490</t>
+          <t>40571</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -4074,7 +4074,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>40571</t>
+          <t>40576</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4084,36 +4084,36 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>40576</t>
+          <t>40609</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>40609</t>
+          <t>40891</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4125,46 +4125,46 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>40891</t>
+          <t>40895</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>40895</t>
+          <t>41768</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>41768</t>
+          <t>41824</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4176,24 +4176,24 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>41824</t>
+          <t>41843</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>41843</t>
+          <t>41971</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4203,65 +4203,65 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>41971</t>
+          <t>42091</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>42091</t>
+          <t>42574</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>42574</t>
+          <t>42637</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>42637</t>
+          <t>42665</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -4278,7 +4278,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>42665</t>
+          <t>42824</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -4288,14 +4288,14 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>42824</t>
+          <t>42934</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -4305,19 +4305,19 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>42934</t>
+          <t>43142</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4329,7 +4329,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>43142</t>
+          <t>43450</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -4346,24 +4346,24 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>43450</t>
+          <t>43510</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>43510</t>
+          <t>43829</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -4373,31 +4373,31 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>43829</t>
+          <t>43967</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>43967</t>
+          <t>44188</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -4407,19 +4407,19 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>44188</t>
+          <t>44267</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4431,12 +4431,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>44267</t>
+          <t>44370</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4448,7 +4448,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>44370</t>
+          <t>44516</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -4458,14 +4458,14 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>44516</t>
+          <t>44639</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4475,14 +4475,14 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>44639</t>
+          <t>44751</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4492,48 +4492,48 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>44751</t>
+          <t>44912</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>44912</t>
+          <t>45147</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>45147</t>
+          <t>45747</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4543,31 +4543,31 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>45747</t>
+          <t>45820</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>45820</t>
+          <t>46034</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -4584,7 +4584,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>46034</t>
+          <t>46035</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -4594,14 +4594,14 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>46035</t>
+          <t>46212</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -4611,14 +4611,14 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>46212</t>
+          <t>46388</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4628,150 +4628,150 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>46388</t>
+          <t>46498</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>46498</t>
+          <t>46697</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>46697</t>
+          <t>47023</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>47023</t>
+          <t>47238</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>47238</t>
+          <t>47435</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>47435</t>
+          <t>47787</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>47787</t>
+          <t>47986</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>47986</t>
+          <t>48117</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>48117</t>
+          <t>48229</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -4781,36 +4781,36 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>48229</t>
+          <t>48605</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>48605</t>
+          <t>48729</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -4822,29 +4822,29 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>48729</t>
+          <t>49143</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>49143</t>
+          <t>49147</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4856,29 +4856,29 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>49147</t>
+          <t>49341</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>49341</t>
+          <t>49432</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -4890,41 +4890,41 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>49432</t>
+          <t>49495</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>49495</t>
+          <t>49611</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>49611</t>
+          <t>50175</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -4934,14 +4934,14 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>50175</t>
+          <t>50272</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -4951,31 +4951,31 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>50272</t>
+          <t>50310</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>50310</t>
+          <t>50481</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -4992,131 +4992,131 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>50481</t>
+          <t>50598</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>50598</t>
+          <t>50612</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>50612</t>
+          <t>50702</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>50702</t>
+          <t>51160</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>51160</t>
+          <t>51327</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>51327</t>
+          <t>51356</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>51356</t>
+          <t>51443</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>51443</t>
+          <t>51628</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5128,24 +5128,24 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>51628</t>
+          <t>51813</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>51813</t>
+          <t>51843</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -5155,19 +5155,19 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>51843</t>
+          <t>51857</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -5179,7 +5179,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>51857</t>
+          <t>51964</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -5189,31 +5189,31 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>51964</t>
+          <t>52046</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>52046</t>
+          <t>52210</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -5223,14 +5223,14 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>52210</t>
+          <t>52225</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -5240,14 +5240,14 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>52225</t>
+          <t>52271</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -5264,12 +5264,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>52271</t>
+          <t>52354</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5281,12 +5281,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>52354</t>
+          <t>52392</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5298,41 +5298,41 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>52392</t>
+          <t>52435</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>52435</t>
+          <t>52593</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>52593</t>
+          <t>52826</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -5342,36 +5342,36 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>52826</t>
+          <t>52959</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>52959</t>
+          <t>52987</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5383,75 +5383,75 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>52987</t>
+          <t>53000</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>53000</t>
+          <t>53047</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>53047</t>
+          <t>53239</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>53239</t>
+          <t>53291</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>53291</t>
+          <t>53314</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -5461,19 +5461,19 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>53314</t>
+          <t>53410</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5485,24 +5485,24 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>53410</t>
+          <t>53455</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>53455</t>
+          <t>53458</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -5512,19 +5512,19 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>53458</t>
+          <t>53593</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5536,29 +5536,29 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>53593</t>
+          <t>53981</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>53981</t>
+          <t>54179</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5570,41 +5570,41 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>54179</t>
+          <t>54362</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>54362</t>
+          <t>54501</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>54501</t>
+          <t>54571</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -5614,14 +5614,14 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>54571</t>
+          <t>54699</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -5631,19 +5631,19 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>54699</t>
+          <t>54736</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -5655,12 +5655,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>54736</t>
+          <t>54769</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5672,7 +5672,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>54769</t>
+          <t>54822</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -5682,19 +5682,19 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>54822</t>
+          <t>55022</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -5706,12 +5706,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>55022</t>
+          <t>55751</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5723,75 +5723,75 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>55751</t>
+          <t>55761</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>55761</t>
+          <t>55839</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>55839</t>
+          <t>56228</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>56228</t>
+          <t>56279</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>56279</t>
+          <t>56423</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5801,70 +5801,70 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>56423</t>
+          <t>56442</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>56442</t>
+          <t>56517</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>56517</t>
+          <t>56655</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>56655</t>
+          <t>56719</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5876,46 +5876,46 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>56719</t>
+          <t>57040</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>57040</t>
+          <t>57297</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>57297</t>
+          <t>57439</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5927,24 +5927,24 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>57439</t>
+          <t>57705</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>57705</t>
+          <t>57747</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -5954,14 +5954,14 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>57747</t>
+          <t>58027</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -5978,24 +5978,24 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>58027</t>
+          <t>58106</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>58106</t>
+          <t>58181</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -6012,12 +6012,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>58181</t>
+          <t>58202</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -6029,12 +6029,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>58202</t>
+          <t>58228</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6046,24 +6046,24 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>58228</t>
+          <t>58287</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>58287</t>
+          <t>58288</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -6073,14 +6073,14 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>58288</t>
+          <t>58324</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -6097,24 +6097,24 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>58324</t>
+          <t>58726</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>58726</t>
+          <t>58765</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -6124,48 +6124,48 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>58765</t>
+          <t>58898</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>58898</t>
+          <t>58920</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>58920</t>
+          <t>58960</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -6175,31 +6175,31 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>58960</t>
+          <t>59025</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>59025</t>
+          <t>59152</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -6209,19 +6209,19 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>59152</t>
+          <t>59188</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -6233,58 +6233,58 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>59188</t>
+          <t>59377</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>59377</t>
+          <t>59770</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>59770</t>
+          <t>59997</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>59997</t>
+          <t>60226</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -6301,12 +6301,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>60226</t>
+          <t>60416</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6318,12 +6318,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>60416</t>
+          <t>60442</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6335,24 +6335,24 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>60442</t>
+          <t>60595</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>60595</t>
+          <t>60723</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -6362,31 +6362,31 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>60723</t>
+          <t>61142</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>61142</t>
+          <t>61184</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -6403,41 +6403,41 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>61184</t>
+          <t>61341</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>61341</t>
+          <t>61398</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>61398</t>
+          <t>61401</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -6454,24 +6454,24 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>61401</t>
+          <t>61428</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>61428</t>
+          <t>61553</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -6488,75 +6488,75 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>61553</t>
+          <t>61918</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>61918</t>
+          <t>62389</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>62389</t>
+          <t>62572</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>62572</t>
+          <t>62975</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>62975</t>
+          <t>63233</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -6573,7 +6573,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>63233</t>
+          <t>63328</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -6583,14 +6583,14 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>63328</t>
+          <t>63451</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -6600,14 +6600,14 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>63451</t>
+          <t>63668</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -6624,58 +6624,58 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>63668</t>
+          <t>64017</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>64017</t>
+          <t>64096</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>64096</t>
+          <t>64165</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>64165</t>
+          <t>64168</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -6692,24 +6692,24 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>64168</t>
+          <t>64333</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>64333</t>
+          <t>64450</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -6726,24 +6726,24 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>64450</t>
+          <t>64607</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>64607</t>
+          <t>64849</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -6753,14 +6753,14 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>64849</t>
+          <t>64952</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -6770,48 +6770,48 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>64952</t>
+          <t>65073</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>65073</t>
+          <t>65158</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>65158</t>
+          <t>65161</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -6821,48 +6821,48 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>65161</t>
+          <t>65248</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>65248</t>
+          <t>65312</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>65312</t>
+          <t>65490</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -6872,14 +6872,14 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>65490</t>
+          <t>65612</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -6896,7 +6896,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>65612</t>
+          <t>65623</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -6913,29 +6913,29 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>65623</t>
+          <t>65901</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>65901</t>
+          <t>65948</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -6947,75 +6947,75 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>65948</t>
+          <t>66042</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>66042</t>
+          <t>66195</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>66195</t>
+          <t>66348</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>66348</t>
+          <t>66478</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>66478</t>
+          <t>66745</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -7025,19 +7025,19 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>66745</t>
+          <t>66842</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -7049,7 +7049,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>66842</t>
+          <t>66940</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -7059,82 +7059,82 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>66940</t>
+          <t>67362</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>67362</t>
+          <t>67376</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>67376</t>
+          <t>67512</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>67512</t>
+          <t>67621</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>67621</t>
+          <t>68113</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -7144,14 +7144,14 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>68113</t>
+          <t>68240</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -7161,14 +7161,14 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>68240</t>
+          <t>68270</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -7178,48 +7178,48 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>68270</t>
+          <t>68341</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>68341</t>
+          <t>68400</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>68400</t>
+          <t>68554</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -7229,48 +7229,48 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>68554</t>
+          <t>68873</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>68873</t>
+          <t>68875</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>68875</t>
+          <t>69061</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -7280,99 +7280,99 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>69061</t>
+          <t>69101</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>69101</t>
+          <t>69137</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>69137</t>
+          <t>69696</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>69696</t>
+          <t>70205</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>70205</t>
+          <t>70233</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>70233</t>
+          <t>70351</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -7382,19 +7382,19 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>70351</t>
+          <t>70359</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -7406,41 +7406,41 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>70359</t>
+          <t>70807</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>70807</t>
+          <t>71021</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>71021</t>
+          <t>71115</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -7450,31 +7450,31 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>71115</t>
+          <t>71144</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>71144</t>
+          <t>71198</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -7491,12 +7491,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>71198</t>
+          <t>71485</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7508,7 +7508,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>71485</t>
+          <t>71546</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -7525,24 +7525,24 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>71546</t>
+          <t>71809</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>71809</t>
+          <t>71839</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -7552,14 +7552,14 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>71839</t>
+          <t>72650</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -7569,31 +7569,31 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>72650</t>
+          <t>72967</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>72967</t>
+          <t>73168</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -7603,14 +7603,14 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>73168</t>
+          <t>73257</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -7620,31 +7620,31 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>73257</t>
+          <t>73723</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>73723</t>
+          <t>74035</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -7654,31 +7654,31 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>74035</t>
+          <t>74090</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>74090</t>
+          <t>74294</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -7695,7 +7695,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>74294</t>
+          <t>74433</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -7712,41 +7712,41 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>74433</t>
+          <t>74460</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>74460</t>
+          <t>74478</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>74478</t>
+          <t>74553</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -7756,31 +7756,31 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>74553</t>
+          <t>74646</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>74646</t>
+          <t>74810</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -7790,14 +7790,14 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>74810</t>
+          <t>75439</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -7814,58 +7814,58 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>75439</t>
+          <t>75697</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>75697</t>
+          <t>75773</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>75773</t>
+          <t>75807</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>75807</t>
+          <t>76051</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -7875,19 +7875,19 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>76051</t>
+          <t>76086</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -7899,24 +7899,24 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>76086</t>
+          <t>76347</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>76347</t>
+          <t>76483</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -7926,14 +7926,14 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>76483</t>
+          <t>76612</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -7950,7 +7950,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>76612</t>
+          <t>76873</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -7960,201 +7960,201 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>76873</t>
+          <t>76889</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>76889</t>
+          <t>77223</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>77223</t>
+          <t>77266</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>77266</t>
+          <t>77370</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>77370</t>
+          <t>77712</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>77712</t>
+          <t>77722</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>77722</t>
+          <t>77723</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>77723</t>
+          <t>77834</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>77834</t>
+          <t>78309</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>78309</t>
+          <t>78621</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>78621</t>
+          <t>78680</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>78680</t>
+          <t>78822</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -8164,133 +8164,133 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>78822</t>
+          <t>78838</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>78838</t>
+          <t>78946</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>78946</t>
+          <t>79154</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>79154</t>
+          <t>79182</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>79182</t>
+          <t>79604</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>79604</t>
+          <t>79676</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>79676</t>
+          <t>79777</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>79777</t>
+          <t>79876</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -8300,19 +8300,19 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>79876</t>
+          <t>79970</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -8324,7 +8324,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>79970</t>
+          <t>80220</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -8334,53 +8334,53 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>80220</t>
+          <t>80241</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>80241</t>
+          <t>80551</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>80551</t>
+          <t>80898</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -8392,24 +8392,24 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>80898</t>
+          <t>81208</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>81208</t>
+          <t>81281</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -8419,48 +8419,48 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>81281</t>
+          <t>81466</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>81466</t>
+          <t>81759</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>81759</t>
+          <t>82241</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -8470,116 +8470,116 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>82241</t>
+          <t>82256</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>82256</t>
+          <t>82377</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>82377</t>
+          <t>82494</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>82494</t>
+          <t>82511</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>82511</t>
+          <t>82573</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>82573</t>
+          <t>82699</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>82699</t>
+          <t>82949</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -8589,48 +8589,48 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>82949</t>
+          <t>83076</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>83076</t>
+          <t>83112</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>83112</t>
+          <t>83166</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -8640,48 +8640,48 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>83166</t>
+          <t>83362</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>83362</t>
+          <t>83476</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>83476</t>
+          <t>83537</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -8691,87 +8691,87 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>83537</t>
+          <t>83562</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>83562</t>
+          <t>83672</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>83672</t>
+          <t>83687</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>83687</t>
+          <t>83854</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>83854</t>
+          <t>83862</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8783,29 +8783,29 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>83862</t>
+          <t>84005</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>84005</t>
+          <t>84212</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8817,24 +8817,24 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>84212</t>
+          <t>84259</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>84259</t>
+          <t>84744</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -8844,31 +8844,31 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>84744</t>
+          <t>84814</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>84814</t>
+          <t>84872</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -8878,65 +8878,65 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>84872</t>
+          <t>84926</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>84926</t>
+          <t>84994</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>84994</t>
+          <t>85241</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>85241</t>
+          <t>85284</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -8953,7 +8953,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>85284</t>
+          <t>85770</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -8963,14 +8963,14 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>85770</t>
+          <t>85810</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -8980,65 +8980,65 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>85810</t>
+          <t>86288</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>86288</t>
+          <t>86396</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>86396</t>
+          <t>86631</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>86631</t>
+          <t>86682</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -9048,19 +9048,19 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>86682</t>
+          <t>86683</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9072,58 +9072,58 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>86683</t>
+          <t>87046</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>87046</t>
+          <t>87081</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>87081</t>
+          <t>87088</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>87088</t>
+          <t>87128</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -9133,150 +9133,150 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>87128</t>
+          <t>87150</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>87150</t>
+          <t>87172</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>87172</t>
+          <t>87853</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>87853</t>
+          <t>87893</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>87893</t>
+          <t>88010</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>88010</t>
+          <t>88041</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>88041</t>
+          <t>88652</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>88652</t>
+          <t>88751</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>88751</t>
+          <t>88965</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -9286,14 +9286,14 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>88965</t>
+          <t>89746</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -9303,19 +9303,19 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>89746</t>
+          <t>89783</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -9327,24 +9327,24 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>89783</t>
+          <t>89885</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>89885</t>
+          <t>90185</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -9354,19 +9354,19 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>90185</t>
+          <t>90507</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9378,12 +9378,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>90507</t>
+          <t>90581</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -9395,63 +9395,63 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>90581</t>
+          <t>90687</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>90687</t>
+          <t>90833</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>90833</t>
+          <t>90851</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>90851</t>
+          <t>91353</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -9463,24 +9463,24 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>91353</t>
+          <t>91436</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>91436</t>
+          <t>91507</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -9490,14 +9490,14 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>91507</t>
+          <t>91998</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -9507,48 +9507,48 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>91998</t>
+          <t>91999</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>91999</t>
+          <t>92210</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>92210</t>
+          <t>92261</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -9558,53 +9558,53 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>92261</t>
+          <t>92332</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>92332</t>
+          <t>92482</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>92482</t>
+          <t>92731</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -9616,24 +9616,24 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>92731</t>
+          <t>93049</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>93049</t>
+          <t>93343</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -9643,31 +9643,31 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>93343</t>
+          <t>93420</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>93420</t>
+          <t>93867</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -9684,12 +9684,12 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>93867</t>
+          <t>93927</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -9701,12 +9701,12 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>93927</t>
+          <t>93940</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9718,12 +9718,12 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>93940</t>
+          <t>94111</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9735,7 +9735,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>94111</t>
+          <t>94118</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -9745,19 +9745,19 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>94118</t>
+          <t>94138</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
@@ -9769,24 +9769,24 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>94138</t>
+          <t>94199</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>94199</t>
+          <t>94376</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -9796,14 +9796,14 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>94376</t>
+          <t>95515</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -9813,65 +9813,65 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>95515</t>
+          <t>95529</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>95529</t>
+          <t>95946</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>95946</t>
+          <t>96132</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>96132</t>
+          <t>96249</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -9881,19 +9881,19 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>96249</t>
+          <t>96287</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
@@ -9905,7 +9905,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>96287</t>
+          <t>96573</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -9915,36 +9915,36 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>96573</t>
+          <t>96804</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>96804</t>
+          <t>96880</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -9956,41 +9956,41 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>96880</t>
+          <t>96922</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>96922</t>
+          <t>96980</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>96980</t>
+          <t>97249</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -10000,31 +10000,31 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>97249</t>
+          <t>97331</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>97331</t>
+          <t>97780</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -10041,7 +10041,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>97780</t>
+          <t>97948</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -10058,24 +10058,24 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>97948</t>
+          <t>97977</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>97977</t>
+          <t>98180</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -10085,19 +10085,19 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>98180</t>
+          <t>98185</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
@@ -10109,7 +10109,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>98185</t>
+          <t>98362</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -10126,7 +10126,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>98362</t>
+          <t>98623</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -10136,14 +10136,14 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>98623</t>
+          <t>98988</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -10153,116 +10153,116 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>98988</t>
+          <t>99120</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>99120</t>
+          <t>99245</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>99245</t>
+          <t>99314</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>99314</t>
+          <t>99472</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>99472</t>
+          <t>99608</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>99608</t>
+          <t>99772</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>99772</t>
+          <t>99776</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -10272,14 +10272,14 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>White</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>99776</t>
+          <t>99821</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -10289,14 +10289,14 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>White</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>99821</t>
+          <t>99902</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -10306,48 +10306,48 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Indian</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>99902</t>
+          <t>99919</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Hispanic</t>
+          <t>Not Hispanic</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Indian</t>
+          <t>Unknown</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>99919</t>
+          <t>99923</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Not Hispanic</t>
+          <t>Hispanic</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Unknown</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>99923</t>
+          <t>99932</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -10356,23 +10356,6 @@
         </is>
       </c>
       <c r="C584" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>99932</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>Hispanic</t>
-        </is>
-      </c>
-      <c r="C585" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
